--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80415.33065292895</v>
+        <v>15243411.81384642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80415.33065292895</v>
+        <v>15243411.81384642</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36219.61030871572</v>
+        <v>4608895.756919458</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36219.61030871572</v>
+        <v>4608895.756919458</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494869468.049698</v>
+        <v>55788065.1079083</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11784.45736096987</v>
+        <v>1194818.616471628</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22965.56893215861</v>
+        <v>2308971.666421041</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34092.82999829618</v>
+        <v>3414912.514350365</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45937.55981411001</v>
+        <v>4467888.129919907</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57120.52327080686</v>
+        <v>5593785.915575782</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68303.48672750327</v>
+        <v>6719683.70123173</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80071.75059632385</v>
+        <v>7966123.558549324</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91542.44831961604</v>
+        <v>9167175.48928922</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103598.2661222622</v>
+        <v>10250066.28474681</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114795.8915538768</v>
+        <v>11435863.56500118</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125842.2526441257</v>
+        <v>12658981.54171123</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136620.7932661726</v>
+        <v>13869900.39903865</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147472.1904538761</v>
+        <v>15091929.88262871</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159506.7777881964</v>
+        <v>16144698.40348188</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173948.0598628921</v>
+        <v>16719430.71606243</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>8.373174401931464e-11</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>262.9999999999449</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>46</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>188</v>
